--- a/backend/output_timetables/sem5_timetable.xlsx
+++ b/backend/output_timetables/sem5_timetable.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -565,27 +565,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -634,22 +634,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS303</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -707,27 +707,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CS461</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS461</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>CS303</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -803,22 +803,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -867,12 +867,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/backend/output_timetables/sem5_timetable.xlsx
+++ b/backend/output_timetables/sem5_timetable.xlsx
@@ -469,22 +469,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -565,22 +565,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -712,22 +712,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,27 +739,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS461</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -808,22 +808,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -835,17 +835,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_timetable.xlsx
+++ b/backend/output_timetables/sem5_timetable.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +475,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,7 +485,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -570,22 +571,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -597,27 +598,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS461</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,17 +640,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -712,7 +713,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -722,12 +723,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,27 +740,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS461</t>
         </is>
       </c>
     </row>
@@ -808,22 +809,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -835,27 +836,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>CS303</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -867,27 +868,198 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for Computer Science</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dr. Sunil C K</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-6</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dr. Animesh Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dr. Krishnendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS461</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4-0-0-0-4</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dr. Pramod</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_timetable.xlsx
+++ b/backend/output_timetables/sem5_timetable.xlsx
@@ -470,17 +470,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS312</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -502,12 +502,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS312 (Tutorial)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,12 +517,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS312</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS308</t>
         </is>
       </c>
     </row>
@@ -571,22 +571,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS312</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS308 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,17 +608,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS465 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -723,12 +723,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS312</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -750,17 +750,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS312</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -804,27 +804,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS312</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS308 (Tutorial)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS465 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS312 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS312</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for Computer Science</t>
+          <t>Data Analysis for CS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -969,19 +969,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr. Sunil C K</t>
+          <t>Dr. Rohit Singh</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Advanced Networks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -999,19 +999,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dr. Animesh Roy</t>
+          <t>Dr. Pooja Nair</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1029,19 +1029,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dr. Krishnendu</t>
+          <t>Dr. Karthik Rao</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS461</t>
+          <t>CS465</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Distributed Systems</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dr. Pramod</t>
+          <t>Dr. Divya Gupta</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_timetable.xlsx
+++ b/backend/output_timetables/sem5_timetable.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS312</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -502,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS312 (Tutorial)</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,12 +518,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS312</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -571,22 +572,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS312</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461 (Elective)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS308 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -598,27 +599,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS465 (Elective)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -635,12 +636,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -650,7 +651,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -708,7 +709,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -718,17 +719,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS312</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -740,7 +741,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -750,12 +751,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS312</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -804,12 +805,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS312</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS308 (Tutorial)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -819,7 +820,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461 (Elective)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -841,17 +842,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS465 (Elective)</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -868,22 +869,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS312 (Tutorial)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -946,12 +947,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CS312</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data Analysis for CS</t>
+          <t>Statistics for Computer Science</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -969,19 +970,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr. Rohit Singh</t>
+          <t>Dr. Sunil C K</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Advanced Networks</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -999,19 +1000,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dr. Pooja Nair</t>
+          <t>Dr. Animesh Roy</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1029,19 +1030,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dr. Karthik Rao</t>
+          <t>Dr. Krishnendu</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CS465</t>
+          <t>CS461</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Distributed Systems</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1059,7 +1060,80 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dr. Divya Gupta</t>
+          <t>Dr. Pramod</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS461</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Elective_Slot_1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_timetable.xlsx
+++ b/backend/output_timetables/sem5_timetable.xlsx
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -572,22 +572,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS303</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS461 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -599,27 +599,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS461 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -805,27 +805,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS461 (Elective)</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS461 (Elective)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -874,22 +874,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_timetable.xlsx
+++ b/backend/output_timetables/sem5_timetable.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS303</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,15 +641,175 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS309</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>15:30-16:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>16:30-17:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>17:30-18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -666,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,17 +874,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -741,7 +901,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -751,7 +911,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -761,7 +921,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -805,27 +965,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -837,12 +997,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>CS309</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS303</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -889,7 +1049,167 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>15:30-16:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>16:30-17:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>17:30-18:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -904,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,10 +1255,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Credits</t>
+          <t>Lectures/Week</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Instructor</t>
         </is>
@@ -966,9 +1296,15 @@
         </is>
       </c>
       <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Dr. Sunil C K</t>
         </is>
@@ -996,9 +1332,15 @@
         </is>
       </c>
       <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>6</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dr. Animesh Roy</t>
         </is>
@@ -1026,9 +1368,15 @@
         </is>
       </c>
       <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dr. Krishnendu</t>
         </is>
@@ -1058,7 +1406,13 @@
       <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dr. Pramod</t>
         </is>

--- a/backend/output_timetables/sem5_timetable.xlsx
+++ b/backend/output_timetables/sem5_timetable.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,32 +466,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>9:00-10:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -523,14 +523,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461 (Elective)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>12:30-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>14:00-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,34 +577,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461 (Elective)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -614,24 +614,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS461 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>17:00-18:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -651,14 +651,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -673,143 +673,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>15:30-16:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>16:30-17:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>17:30-18:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -826,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,7 +736,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>9:00-10:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -874,22 +746,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -901,7 +773,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -921,14 +793,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461 (Elective)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>12:30-14:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -960,12 +832,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>14:00-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -980,29 +852,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461 (Elective)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1012,51 +884,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS461 (Elective)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS461 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>17:00-18:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1076,140 +948,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>15:30-16:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>16:30-17:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>17:30-18:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1445,20 +1189,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Time Slot</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Slot Name</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Sections</t>
         </is>
@@ -1472,20 +1221,89 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS461</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Elective_Slot_1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS461</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>A &amp; B (Common Slot)</t>
         </is>
